--- a/QRPH/CCG/StructureDefinition-ccg-card-provide-ad.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-card-provide-ad.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3933,7 +3933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>202</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>321</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>326</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>334</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>340</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>350</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>356</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>361</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>365</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>371</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>379</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>454</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>461</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>465</v>
       </c>
@@ -9393,12 +9393,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN66">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
